--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\eps-us-2.1.0\eps-us-2.1.0\InputData\geoeng\DACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\geoeng\DACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E49D1E9-7EA2-4B99-80CF-DD481D9EB2B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="DACD-energyintensity" sheetId="5" r:id="rId4"/>
     <sheet name="DACD-capex" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Sources:</t>
   </si>
@@ -302,12 +301,18 @@
   </si>
   <si>
     <t>India GDP updated in Data tab. Remaining calculations as per US model.</t>
+  </si>
+  <si>
+    <t>India:US cost adjustment</t>
+  </si>
+  <si>
+    <t>see "scaling-factors.xlsx in the InputData folder for source information.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -801,35 +806,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A29" sqref="A29:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="47.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,42 +842,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -880,7 +885,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -888,60 +893,75 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>0.50596615326007366</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -949,50 +969,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A71" sqref="A71:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" customWidth="1"/>
+    <col min="4" max="8" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>81</v>
       </c>
@@ -1003,7 +1023,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1045,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1056,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1047,12 +1067,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1094,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1085,17 +1105,17 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1137,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1128,32 +1148,32 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
@@ -1165,27 +1185,27 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>2045</v>
       </c>
@@ -1208,7 +1228,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1234,7 +1254,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +1280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -1268,7 +1288,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>2045</v>
       </c>
@@ -1291,7 +1311,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1324,7 +1344,7 @@
         <v>27.071428571428573</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -1357,27 +1377,27 @@
         <v>2.8571428571428568</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -1391,7 +1411,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -1414,7 +1434,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>44</v>
       </c>
@@ -1426,7 +1446,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>2045</v>
       </c>
@@ -1449,7 +1469,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1502,7 @@
         <v>0.87982142857142864</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -1515,12 +1535,12 @@
         <v>9.2857142857142846E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>2045</v>
       </c>
@@ -1543,7 +1563,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -1576,7 +1596,7 @@
         <v>879821428.57142866</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -1609,32 +1629,32 @@
         <v>92857142.857142851</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -1642,7 +1662,7 @@
         <v>947086</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>80</v>
       </c>
@@ -1655,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1663,13 +1683,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +1796,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1895,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1903,13 +1923,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2016,7 +2036,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>67</v>
       </c>
@@ -2157,7 +2177,7 @@
         <v>1704754.8</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>69</v>
       </c>
@@ -2438,7 +2458,7 @@
         <v>7671396.5999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>70</v>
       </c>
@@ -2578,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>71</v>
       </c>
@@ -2718,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>72</v>
       </c>
@@ -2858,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
@@ -2998,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>74</v>
       </c>
@@ -3138,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>75</v>
       </c>
@@ -3278,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
@@ -3424,21 +3444,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -3545,145 +3567,145 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="14">
-        <f>Data!B10</f>
-        <v>300</v>
+        <f>Data!B10*About!A31</f>
+        <v>151.7898459780221</v>
       </c>
       <c r="C2" s="14">
         <f>$B2</f>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="D2" s="14">
         <f t="shared" ref="D2:AI2" si="0">$B2</f>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="E2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="F2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="K2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="L2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="N2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="O2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="P2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="Q2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="R2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="S2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="T2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="U2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="V2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="W2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="X2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="Y2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="Z2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AA2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AB2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AC2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AD2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AE2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AF2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AG2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AH2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
       <c r="AI2" s="14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>151.7898459780221</v>
       </c>
     </row>
   </sheetData>
